--- a/saved/laporan_tdi.xlsx
+++ b/saved/laporan_tdi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>PEMERINTAH KABUPATEN BIREUEN</t>
   </si>
@@ -47,6 +47,15 @@
     <t>Alamat Perusahaan</t>
   </si>
   <si>
+    <t>Jenis Industri (KBLI)</t>
+  </si>
+  <si>
+    <t>Komoditi Industri</t>
+  </si>
+  <si>
+    <t>Modal Investasi</t>
+  </si>
+  <si>
     <t>Terbit</t>
   </si>
   <si>
@@ -71,6 +80,15 @@
     <t xml:space="preserve"> "UD. AMANAH "</t>
   </si>
   <si>
+    <t xml:space="preserve">INDUSTRI PANEL KAYU LAINNYA (16213) </t>
+  </si>
+  <si>
+    <t>KETAM KAYU</t>
+  </si>
+  <si>
+    <t>Rp. 200.000.000</t>
+  </si>
+  <si>
     <t>19 Januari 2015</t>
   </si>
   <si>
@@ -90,6 +108,15 @@
   </si>
   <si>
     <t>Jl. Tgk. Chik Awe Geutah Gp. Dayah Baroe Kec. Peusangan Siblah Krueng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUSTRI PENGGERGAJIAN KAYU (16101) </t>
+  </si>
+  <si>
+    <t>KAYU BANGUNAN</t>
+  </si>
+  <si>
+    <t>Rp. 150.000.000</t>
   </si>
   <si>
     <t>08 Januari 2015</t>
@@ -158,7 +185,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border/>
     <border>
       <left style="thin">
@@ -170,6 +197,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -178,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -201,6 +250,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -219,10 +274,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1019175" cy="1019175"/>
     <xdr:pic>
@@ -540,10 +595,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -553,14 +608,17 @@
     <col min="3" max="3" width="21.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.7109375" customWidth="true" style="0"/>
     <col min="5" max="5" width="27.140625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="38.140625" customWidth="true" style="0"/>
-    <col min="7" max="7" width="22.28515625" customWidth="true" style="0"/>
+    <col min="6" max="6" width="41" customWidth="true" style="0"/>
+    <col min="7" max="7" width="38.140625" customWidth="true" style="0"/>
+    <col min="8" max="8" width="38.140625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="23" customWidth="true" style="0"/>
+    <col min="10" max="10" width="18.7109375" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:10">
+    <row r="1" spans="1:13">
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -572,8 +630,11 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="21">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" customHeight="1" ht="21">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -585,8 +646,11 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -598,8 +662,11 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -611,8 +678,11 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="7" t="s">
         <v>4</v>
       </c>
@@ -631,125 +701,158 @@
       <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="8">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="10">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8">
+      <c r="E9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="10">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="B10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="G18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="G20" t="s">
-        <v>30</v>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="I20" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
